--- a/configuration/PermissionData.xlsx
+++ b/configuration/PermissionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\semester5\SoftwareTesting\PROJECT\New folder\SoftwareTesting\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7DA15-1E63-45A5-BC2C-3AAC893599C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4E4259-FB89-4DA5-8121-76DAC8AED2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55DACF9B-577C-4D21-A07E-0057234A1FE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55DACF9B-577C-4D21-A07E-0057234A1FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,12 +454,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -482,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -505,7 +512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -528,7 +535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
